--- a/ej.xlsx
+++ b/ej.xlsx
@@ -1,33 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\proyectos del cuarto semestre\analizadorDeDatos_Estadistica\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D800C61-87C8-49ED-9A5E-962F637F94A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="intervalos" sheetId="1" r:id="rId1"/>
-    <sheet name="simple" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="intervalos"/>
+    <sheet r:id="rId2" sheetId="2" name="simple"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -89,105 +72,6 @@
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <t>media aritmetica</t>
-  </si>
-  <si>
-    <t>mediana</t>
-  </si>
-  <si>
-    <t>posicion</t>
-  </si>
-  <si>
-    <t>totales</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>quartil 1</t>
-  </si>
-  <si>
-    <t>quartil 3</t>
-  </si>
-  <si>
-    <t>decil 6</t>
-  </si>
-  <si>
-    <t>decil 9</t>
-  </si>
-  <si>
-    <t>percentil 27</t>
-  </si>
-  <si>
-    <t>percentil 73</t>
-  </si>
-  <si>
-    <t>rango</t>
-  </si>
-  <si>
-    <t>desviacion estandar</t>
-  </si>
-  <si>
-    <t>varianza</t>
-  </si>
-  <si>
-    <t>Duración de una pantalla (en cientos de horas)</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>LI</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>Xi</t>
-  </si>
-  <si>
-    <t>f*Xi</t>
-  </si>
-  <si>
-    <t>moda</t>
-  </si>
-  <si>
-    <t>delta 1</t>
-  </si>
-  <si>
-    <t>delta2</t>
-  </si>
-  <si>
-    <t>cuartil 2</t>
-  </si>
-  <si>
-    <t>decil 8</t>
-  </si>
-  <si>
-    <t>percentil 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desciavion media </t>
-  </si>
-  <si>
-    <t>f*d3</t>
-  </si>
-  <si>
-    <t>f*d4</t>
-  </si>
-  <si>
-    <t>asimetria</t>
-  </si>
-  <si>
-    <t>curtosis</t>
   </si>
   <si>
     <r>
@@ -206,7 +90,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -231,7 +115,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -239,16 +123,115 @@
       <t/>
     </r>
   </si>
+  <si>
+    <t>totales</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>asimetria</t>
+  </si>
+  <si>
+    <t>media aritmetica</t>
+  </si>
+  <si>
+    <t>quartil 1</t>
+  </si>
+  <si>
+    <t>curtosis</t>
+  </si>
+  <si>
+    <t>mediana</t>
+  </si>
+  <si>
+    <t>posicion</t>
+  </si>
+  <si>
+    <t>quartil 3</t>
+  </si>
+  <si>
+    <t>decil 6</t>
+  </si>
+  <si>
+    <t>decil 9</t>
+  </si>
+  <si>
+    <t>percentil 27</t>
+  </si>
+  <si>
+    <t>percentil 73</t>
+  </si>
+  <si>
+    <t>rango</t>
+  </si>
+  <si>
+    <t>desviacion estandar</t>
+  </si>
+  <si>
+    <t>varianza</t>
+  </si>
+  <si>
+    <t>Duración de una pantalla (en cientos de horas)</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Xi</t>
+  </si>
+  <si>
+    <t>f*Xi</t>
+  </si>
+  <si>
+    <t>f*d3</t>
+  </si>
+  <si>
+    <t>f*d4</t>
+  </si>
+  <si>
+    <t>moda</t>
+  </si>
+  <si>
+    <t>delta 1</t>
+  </si>
+  <si>
+    <t>delta2</t>
+  </si>
+  <si>
+    <t>cuartil 2</t>
+  </si>
+  <si>
+    <t>decil 8</t>
+  </si>
+  <si>
+    <t>percentil 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desciavion media </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,19 +266,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -306,12 +276,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
+        <fgColor rgb="FFe7e6e6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -384,13 +354,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -447,137 +417,167 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="51">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -588,10 +588,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -629,71 +629,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -721,7 +721,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -744,11 +744,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -757,13 +757,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -773,7 +773,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -782,7 +782,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -791,7 +791,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -799,10 +799,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -867,735 +867,725 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="50" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="31" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="31" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="31" width="5.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="32" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="30" width="4.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="32" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="30" width="4.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="32" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="30" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="31" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="31" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="31" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="31" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="33" width="14.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="O1" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="9">
         <v>360</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="10">
         <v>372</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>388</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="10">
         <v>404</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="10">
         <v>414</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="10">
         <v>428</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="10">
         <v>441</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="10">
         <v>452</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="10">
         <v>466</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="10">
         <v>483</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="O2" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="9">
         <v>360</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="10">
         <v>373</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>389</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <v>404</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="10">
         <v>415</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="10">
         <v>428</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="10">
         <v>441</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="10">
         <v>453</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="10">
         <v>467</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="10">
         <v>483</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="O3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="9">
         <v>361</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>374</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>390</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <v>404</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="10">
         <v>416</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="10">
         <v>429</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="10">
         <v>442</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="10">
         <v>455</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="10">
         <v>469</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="10">
         <v>485</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="O4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="9">
         <v>361</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>375</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>390</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <v>404</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="10">
         <v>416</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="10">
         <v>430</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="10">
         <v>443</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="10">
         <v>456</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="10">
         <v>469</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="10">
         <v>486</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="41">
         <f>COUNT(A2:J19)</f>
-        <v>180</v>
       </c>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="O5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="9">
         <v>362</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>376</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>391</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <v>405</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
         <v>418</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="10">
         <v>432</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <v>444</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <v>456</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="10">
         <v>470</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="10">
         <v>486</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="41">
         <f>MIN(A2:J19)</f>
-        <v>360</v>
       </c>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="O6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="9">
         <v>363</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>377</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>392</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
         <v>405</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="10">
         <v>419</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="10">
         <v>432</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="10">
         <v>444</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="10">
         <v>458</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="10">
         <v>471</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="10">
         <v>487</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="41">
         <f>MAX(A2:J19)</f>
-        <v>495</v>
       </c>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="O7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="9">
         <v>363</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>378</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <v>392</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="10">
         <v>405</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="10">
         <v>420</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="10">
         <v>433</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="10">
         <v>445</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="10">
         <v>458</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="10">
         <v>473</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="10">
         <v>487</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="23">
+      <c r="L8" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="41">
         <f>M7-M6</f>
-        <v>135</v>
       </c>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="O8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="42">
+        <f>1+3.322*LOG(M5)</f>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="9">
         <v>364</v>
       </c>
-      <c r="B9" s="8">
-        <v>379</v>
-      </c>
-      <c r="C9" s="8">
-        <v>393</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B10" s="10">
+        <v>380</v>
+      </c>
+      <c r="C10" s="10">
+        <v>394</v>
+      </c>
+      <c r="D10" s="10">
         <v>406</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="10">
         <v>420</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="10">
         <v>435</v>
       </c>
-      <c r="G9" s="8">
-        <v>446</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G10" s="10">
+        <v>447</v>
+      </c>
+      <c r="H10" s="10">
         <v>460</v>
       </c>
-      <c r="I9" s="8">
-        <v>473</v>
-      </c>
-      <c r="J9" s="8">
-        <v>487</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="24">
-        <f>1+3.322*LOG(M5)</f>
-        <v>8.492015261953183</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>364</v>
-      </c>
-      <c r="B10" s="8">
-        <v>380</v>
-      </c>
-      <c r="C10" s="8">
-        <v>394</v>
-      </c>
-      <c r="D10" s="8">
-        <v>406</v>
-      </c>
-      <c r="E10" s="8">
-        <v>420</v>
-      </c>
-      <c r="F10" s="8">
-        <v>435</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="I10" s="10">
+        <v>475</v>
+      </c>
+      <c r="J10" s="10">
+        <v>488</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="42">
+        <f>M8/M9</f>
+      </c>
+      <c r="N10" s="41">
+        <f>ROUND(M10, 0)</f>
+      </c>
+      <c r="O10" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="A11" s="9">
+        <v>365</v>
+      </c>
+      <c r="B11" s="10">
+        <v>381</v>
+      </c>
+      <c r="C11" s="10">
+        <v>395</v>
+      </c>
+      <c r="D11" s="10">
+        <v>407</v>
+      </c>
+      <c r="E11" s="10">
+        <v>421</v>
+      </c>
+      <c r="F11" s="10">
+        <v>436</v>
+      </c>
+      <c r="G11" s="10">
         <v>447</v>
       </c>
-      <c r="H10" s="8">
-        <v>460</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="H11" s="10">
+        <v>461</v>
+      </c>
+      <c r="I11" s="10">
         <v>475</v>
       </c>
-      <c r="J10" s="8">
-        <v>488</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="24">
-        <f>M8/M9</f>
-        <v>15.897286549264832</v>
-      </c>
-      <c r="N10" s="23">
-        <f>ROUND(M10, 0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>365</v>
-      </c>
-      <c r="B11" s="8">
-        <v>381</v>
-      </c>
-      <c r="C11" s="8">
-        <v>395</v>
-      </c>
-      <c r="D11" s="8">
-        <v>407</v>
-      </c>
-      <c r="E11" s="8">
-        <v>421</v>
-      </c>
-      <c r="F11" s="8">
-        <v>436</v>
-      </c>
-      <c r="G11" s="8">
-        <v>447</v>
-      </c>
-      <c r="H11" s="8">
-        <v>461</v>
-      </c>
-      <c r="I11" s="8">
-        <v>475</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="J11" s="10">
         <v>490</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="O11" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+      <c r="A12" s="9">
         <v>366</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="10">
         <v>382</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <v>396</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <v>407</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="10">
         <v>423</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="10">
         <v>436</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="10">
         <v>448</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="10">
         <v>462</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="10">
         <v>475</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="10">
         <v>491</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="O12" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+      <c r="A13" s="9">
         <v>367</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <v>382</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="10">
         <v>398</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="10">
         <v>407</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="10">
         <v>423</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="10">
         <v>436</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="10">
         <v>448</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="10">
         <v>462</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="10">
         <v>478</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="10">
         <v>491</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="O13" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+      <c r="A14" s="9">
         <v>368</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="10">
         <v>382</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="10">
         <v>400</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="10">
         <v>408</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="10">
         <v>424</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="10">
         <v>436</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="10">
         <v>448</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="10">
         <v>463</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="10">
         <v>478</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="10">
         <v>492</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="O14" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="A15" s="9">
         <v>369</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="10">
         <v>383</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <v>401</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="10">
         <v>408</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="10">
         <v>424</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="10">
         <v>437</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="10">
         <v>449</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="10">
         <v>464</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="10">
         <v>479</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="10">
         <v>493</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="O15" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+      <c r="A16" s="9">
         <v>370</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="10">
         <v>384</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="10">
         <v>402</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="10">
         <v>409</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="10">
         <v>425</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="10">
         <v>438</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="10">
         <v>451</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="10">
         <v>464</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="10">
         <v>480</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="10">
         <v>493</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="O16" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+      <c r="A17" s="9">
         <v>370</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="10">
         <v>384</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="10">
         <v>402</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="10">
         <v>410</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="10">
         <v>426</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="10">
         <v>438</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="10">
         <v>451</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="10">
         <v>464</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="10">
         <v>480</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="10">
         <v>494</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="O17" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+      <c r="A18" s="9">
         <v>371</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="10">
         <v>385</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="10">
         <v>402</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="10">
         <v>412</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="10">
         <v>427</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="10">
         <v>439</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="10">
         <v>452</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="10">
         <v>465</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="10">
         <v>481</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="10">
         <v>495</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="O18" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="9">
         <v>372</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="10">
         <v>386</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="10">
         <v>403</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="10">
         <v>412</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="10">
         <v>428</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="10">
         <v>440</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="10">
         <v>452</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="10">
         <v>465</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="10">
         <v>482</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="10">
         <v>495</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1610,8 +1600,9 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1626,651 +1617,510 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="O21" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="14" t="s">
+      <c r="J22" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="N22" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
+      <c r="N22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="41">
         <f>M6</f>
-        <v>360</v>
-      </c>
-      <c r="B23" s="23">
-        <f t="shared" ref="B23:B31" si="0">A23+15</f>
-        <v>375</v>
-      </c>
-      <c r="C23" s="24">
-        <f t="shared" ref="C23:C31" si="1">AVERAGE(A23:B23)</f>
-        <v>367.5</v>
-      </c>
-      <c r="D23" s="23">
-        <f t="shared" ref="D23:D31" si="2">COUNTIFS($A$2:$J$19, "&gt;="&amp;A23, $A$2:$J$19, "&lt;="&amp;B23)</f>
-        <v>22</v>
-      </c>
-      <c r="E23" s="25">
-        <f t="shared" ref="E23:E31" si="3">D23/$D$32</f>
-        <v>0.12222222222222222</v>
-      </c>
-      <c r="F23" s="23">
+      </c>
+      <c r="B23" s="41">
+        <f>A23+15</f>
+      </c>
+      <c r="C23" s="42">
+        <f>AVERAGE(A23:B23)</f>
+      </c>
+      <c r="D23" s="41">
+        <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A23, $A$2:$J$19, "&lt;="&amp;B23)</f>
+      </c>
+      <c r="E23" s="43">
+        <f>D23/$D$32</f>
+      </c>
+      <c r="F23" s="41">
         <f>D23</f>
-        <v>22</v>
-      </c>
-      <c r="G23" s="25">
-        <f t="shared" ref="G23:G31" si="4">F23/$D$32</f>
-        <v>0.12222222222222222</v>
-      </c>
-      <c r="H23" s="23">
+      </c>
+      <c r="G23" s="43">
+        <f>F23/$D$32</f>
+      </c>
+      <c r="H23" s="41">
         <f>D32</f>
-        <v>180</v>
-      </c>
-      <c r="I23" s="25">
-        <f t="shared" ref="I23:I31" si="5">H23/$D$32</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="23">
-        <f t="shared" ref="J23:J31" si="6">C23*D23</f>
-        <v>8085</v>
-      </c>
-      <c r="K23" s="24">
+      </c>
+      <c r="I23" s="43">
+        <f>H23/$D$32</f>
+      </c>
+      <c r="J23" s="41">
+        <f>C23*D23</f>
+      </c>
+      <c r="K23" s="42">
         <f>C23-$B$34</f>
-        <v>-59.644444444444446</v>
-      </c>
-      <c r="L23" s="24">
-        <f t="shared" ref="L23:L31" si="7">D23*ABS(K23)</f>
-        <v>1312.1777777777779</v>
-      </c>
-      <c r="M23" s="24">
-        <f t="shared" ref="M23:M31" si="8">D23*(K23*K23)</f>
-        <v>78264.114567901241</v>
-      </c>
-      <c r="N23" s="24">
+      </c>
+      <c r="L23" s="42">
+        <f>D23*ABS(K23)</f>
+      </c>
+      <c r="M23" s="42">
+        <f>D23*(K23*K23)</f>
+      </c>
+      <c r="N23" s="42">
         <f>D23*(K23^3)</f>
-        <v>-4668019.6333388202</v>
-      </c>
-      <c r="O23" s="24">
+      </c>
+      <c r="O23" s="42">
         <f>D23*(K23^4)</f>
-        <v>278421437.68625319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="41">
         <f>B23+1</f>
-        <v>376</v>
-      </c>
-      <c r="B24" s="23">
-        <f t="shared" si="0"/>
-        <v>391</v>
-      </c>
-      <c r="C24" s="24">
-        <f t="shared" si="1"/>
-        <v>383.5</v>
-      </c>
-      <c r="D24" s="23">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="E24" s="25">
-        <f t="shared" si="3"/>
-        <v>0.10555555555555556</v>
-      </c>
-      <c r="F24" s="23">
-        <f t="shared" ref="F24:F31" si="9">F23+D24</f>
-        <v>41</v>
-      </c>
-      <c r="G24" s="25">
-        <f t="shared" si="4"/>
-        <v>0.22777777777777777</v>
-      </c>
-      <c r="H24" s="23">
-        <f t="shared" ref="H24:H31" si="10">H23-D23</f>
-        <v>158</v>
-      </c>
-      <c r="I24" s="25">
-        <f t="shared" si="5"/>
-        <v>0.87777777777777777</v>
-      </c>
-      <c r="J24" s="24">
-        <f t="shared" si="6"/>
-        <v>7286.5</v>
-      </c>
-      <c r="K24" s="24">
-        <f t="shared" ref="K24:K31" si="11">C24-$B$34</f>
-        <v>-43.644444444444446</v>
-      </c>
-      <c r="L24" s="24">
-        <f t="shared" si="7"/>
-        <v>829.24444444444453</v>
-      </c>
-      <c r="M24" s="24">
-        <f t="shared" si="8"/>
-        <v>36191.91308641975</v>
-      </c>
-      <c r="N24" s="24">
-        <f t="shared" ref="N24:N31" si="12">D24*(K24^3)</f>
-        <v>-1579575.9400384089</v>
-      </c>
-      <c r="O24" s="24">
-        <f t="shared" ref="O24:O31" si="13">D24*(K24^4)</f>
-        <v>68939714.360787436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
-        <f t="shared" ref="A25:A31" si="14">B24+1</f>
-        <v>392</v>
-      </c>
-      <c r="B25" s="23">
-        <f t="shared" si="0"/>
-        <v>407</v>
-      </c>
-      <c r="C25" s="24">
-        <f t="shared" si="1"/>
-        <v>399.5</v>
-      </c>
-      <c r="D25" s="23">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="E25" s="25">
-        <f t="shared" si="3"/>
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="F25" s="23">
-        <f t="shared" si="9"/>
-        <v>66</v>
-      </c>
-      <c r="G25" s="25">
-        <f t="shared" si="4"/>
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="H25" s="23">
-        <f t="shared" si="10"/>
-        <v>139</v>
-      </c>
-      <c r="I25" s="25">
-        <f t="shared" si="5"/>
-        <v>0.77222222222222225</v>
-      </c>
-      <c r="J25" s="24">
-        <f t="shared" si="6"/>
-        <v>9987.5</v>
-      </c>
-      <c r="K25" s="24">
-        <f t="shared" si="11"/>
-        <v>-27.644444444444446</v>
-      </c>
-      <c r="L25" s="24">
-        <f t="shared" si="7"/>
-        <v>691.11111111111109</v>
-      </c>
-      <c r="M25" s="24">
-        <f t="shared" si="8"/>
-        <v>19105.382716049386</v>
-      </c>
-      <c r="N25" s="24">
-        <f t="shared" si="12"/>
-        <v>-528157.69108367641</v>
-      </c>
-      <c r="O25" s="24">
-        <f t="shared" si="13"/>
-        <v>14600625.949068744</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
-        <f t="shared" si="14"/>
-        <v>408</v>
-      </c>
-      <c r="B26" s="23">
-        <f t="shared" si="0"/>
-        <v>423</v>
-      </c>
-      <c r="C26" s="24">
-        <f t="shared" si="1"/>
-        <v>415.5</v>
-      </c>
-      <c r="D26" s="23">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="E26" s="25">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="F26" s="23">
-        <f t="shared" si="9"/>
-        <v>84</v>
-      </c>
-      <c r="G26" s="25">
-        <f t="shared" si="4"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="H26" s="23">
-        <f t="shared" si="10"/>
-        <v>114</v>
-      </c>
-      <c r="I26" s="25">
-        <f t="shared" si="5"/>
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="J26" s="23">
-        <f t="shared" si="6"/>
-        <v>7479</v>
-      </c>
-      <c r="K26" s="24">
-        <f t="shared" si="11"/>
-        <v>-11.644444444444446</v>
-      </c>
-      <c r="L26" s="24">
-        <f t="shared" si="7"/>
-        <v>209.60000000000002</v>
-      </c>
-      <c r="M26" s="24">
-        <f t="shared" si="8"/>
-        <v>2440.675555555556</v>
-      </c>
-      <c r="N26" s="24">
-        <f t="shared" si="12"/>
-        <v>-28420.310913580259</v>
-      </c>
-      <c r="O26" s="24">
-        <f t="shared" si="13"/>
-        <v>330938.73152702348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
-        <f t="shared" si="14"/>
-        <v>424</v>
-      </c>
-      <c r="B27" s="23">
-        <f t="shared" si="0"/>
-        <v>439</v>
-      </c>
-      <c r="C27" s="24">
-        <f t="shared" si="1"/>
-        <v>431.5</v>
-      </c>
-      <c r="D27" s="23">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="E27" s="25">
-        <f t="shared" si="3"/>
-        <v>0.12777777777777777</v>
-      </c>
-      <c r="F27" s="26">
-        <f t="shared" si="9"/>
-        <v>107</v>
-      </c>
-      <c r="G27" s="25">
-        <f t="shared" si="4"/>
-        <v>0.59444444444444444</v>
-      </c>
-      <c r="H27" s="23">
-        <f t="shared" si="10"/>
-        <v>96</v>
-      </c>
-      <c r="I27" s="25">
-        <f t="shared" si="5"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="J27" s="24">
-        <f t="shared" si="6"/>
-        <v>9924.5</v>
-      </c>
-      <c r="K27" s="24">
-        <f t="shared" si="11"/>
-        <v>4.3555555555555543</v>
-      </c>
-      <c r="L27" s="24">
-        <f t="shared" si="7"/>
-        <v>100.17777777777775</v>
-      </c>
-      <c r="M27" s="24">
-        <f t="shared" si="8"/>
-        <v>436.32987654320965</v>
-      </c>
-      <c r="N27" s="24">
-        <f t="shared" si="12"/>
-        <v>1900.4590178326459</v>
-      </c>
-      <c r="O27" s="24">
-        <f t="shared" si="13"/>
-        <v>8277.5548332266335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23">
-        <f t="shared" si="14"/>
-        <v>440</v>
-      </c>
-      <c r="B28" s="23">
-        <f t="shared" si="0"/>
-        <v>455</v>
-      </c>
-      <c r="C28" s="24">
-        <f t="shared" si="1"/>
-        <v>447.5</v>
-      </c>
-      <c r="D28" s="23">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="E28" s="25">
-        <f t="shared" si="3"/>
-        <v>0.12222222222222222</v>
-      </c>
-      <c r="F28" s="23">
-        <f t="shared" si="9"/>
-        <v>129</v>
-      </c>
-      <c r="G28" s="25">
-        <f t="shared" si="4"/>
-        <v>0.71666666666666667</v>
-      </c>
-      <c r="H28" s="23">
-        <f t="shared" si="10"/>
-        <v>73</v>
-      </c>
-      <c r="I28" s="25">
-        <f t="shared" si="5"/>
-        <v>0.40555555555555556</v>
-      </c>
-      <c r="J28" s="23">
-        <f t="shared" si="6"/>
-        <v>9845</v>
-      </c>
-      <c r="K28" s="24">
-        <f t="shared" si="11"/>
-        <v>20.355555555555554</v>
-      </c>
-      <c r="L28" s="24">
-        <f t="shared" si="7"/>
-        <v>447.82222222222219</v>
-      </c>
-      <c r="M28" s="24">
-        <f t="shared" si="8"/>
-        <v>9115.6701234567881</v>
-      </c>
-      <c r="N28" s="24">
-        <f t="shared" si="12"/>
-        <v>185554.5296241426</v>
-      </c>
-      <c r="O28" s="24">
-        <f t="shared" si="13"/>
-        <v>3777065.5363492137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
-        <f t="shared" si="14"/>
-        <v>456</v>
-      </c>
-      <c r="B29" s="23">
-        <f t="shared" si="0"/>
-        <v>471</v>
-      </c>
-      <c r="C29" s="24">
-        <f t="shared" si="1"/>
-        <v>463.5</v>
-      </c>
-      <c r="D29" s="23">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="E29" s="25">
-        <f t="shared" si="3"/>
-        <v>0.11666666666666667</v>
-      </c>
-      <c r="F29" s="23">
-        <f t="shared" si="9"/>
-        <v>150</v>
-      </c>
-      <c r="G29" s="25">
-        <f t="shared" si="4"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H29" s="23">
-        <f t="shared" si="10"/>
-        <v>51</v>
-      </c>
-      <c r="I29" s="25">
-        <f t="shared" si="5"/>
-        <v>0.28333333333333333</v>
-      </c>
-      <c r="J29" s="24">
-        <f t="shared" si="6"/>
-        <v>9733.5</v>
-      </c>
-      <c r="K29" s="24">
-        <f t="shared" si="11"/>
-        <v>36.355555555555554</v>
-      </c>
-      <c r="L29" s="24">
-        <f t="shared" si="7"/>
-        <v>763.4666666666667</v>
-      </c>
-      <c r="M29" s="24">
-        <f t="shared" si="8"/>
-        <v>27756.254814814813</v>
-      </c>
-      <c r="N29" s="24">
-        <f t="shared" si="12"/>
-        <v>1009094.0639341562</v>
-      </c>
-      <c r="O29" s="24">
-        <f t="shared" si="13"/>
-        <v>36686175.302139543</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
-        <f t="shared" si="14"/>
-        <v>472</v>
-      </c>
-      <c r="B30" s="23">
-        <f t="shared" si="0"/>
-        <v>487</v>
-      </c>
-      <c r="C30" s="24">
-        <f t="shared" si="1"/>
-        <v>479.5</v>
-      </c>
-      <c r="D30" s="23">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="E30" s="25">
-        <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F30" s="23">
-        <f t="shared" si="9"/>
-        <v>170</v>
-      </c>
-      <c r="G30" s="25">
-        <f t="shared" si="4"/>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="H30" s="23">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="I30" s="25">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J30" s="23">
-        <f t="shared" si="6"/>
-        <v>9590</v>
-      </c>
-      <c r="K30" s="24">
-        <f t="shared" si="11"/>
-        <v>52.355555555555554</v>
-      </c>
-      <c r="L30" s="24">
-        <f t="shared" si="7"/>
-        <v>1047.1111111111111</v>
-      </c>
-      <c r="M30" s="24">
-        <f t="shared" si="8"/>
-        <v>54822.083950617278</v>
-      </c>
-      <c r="N30" s="24">
-        <f t="shared" si="12"/>
-        <v>2870240.6619478734</v>
-      </c>
-      <c r="O30" s="24">
-        <f t="shared" si="13"/>
-        <v>150273044.43442643</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
-        <f t="shared" si="14"/>
-        <v>488</v>
-      </c>
-      <c r="B31" s="23">
-        <f t="shared" si="0"/>
-        <v>503</v>
-      </c>
-      <c r="C31" s="24">
-        <f t="shared" si="1"/>
-        <v>495.5</v>
-      </c>
-      <c r="D31" s="23">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E31" s="25">
-        <f t="shared" si="3"/>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F31" s="23">
-        <f t="shared" si="9"/>
-        <v>180</v>
-      </c>
-      <c r="G31" s="25">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H31" s="23">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="I31" s="25">
-        <f t="shared" si="5"/>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="J31" s="23">
-        <f t="shared" si="6"/>
-        <v>4955</v>
-      </c>
-      <c r="K31" s="24">
-        <f t="shared" si="11"/>
-        <v>68.355555555555554</v>
-      </c>
-      <c r="L31" s="24">
-        <f t="shared" si="7"/>
-        <v>683.55555555555554</v>
-      </c>
-      <c r="M31" s="24">
-        <f t="shared" si="8"/>
-        <v>46724.81975308642</v>
-      </c>
-      <c r="N31" s="24">
-        <f t="shared" si="12"/>
-        <v>3193901.0124554182</v>
-      </c>
-      <c r="O31" s="24">
-        <f t="shared" si="13"/>
-        <v>218320878.09584153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23">
+      </c>
+      <c r="B24" s="41">
+        <f>A24+15</f>
+      </c>
+      <c r="C24" s="42">
+        <f>AVERAGE(A24:B24)</f>
+      </c>
+      <c r="D24" s="41">
+        <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A24, $A$2:$J$19, "&lt;="&amp;B24)</f>
+      </c>
+      <c r="E24" s="43">
+        <f>D24/$D$32</f>
+      </c>
+      <c r="F24" s="41">
+        <f>F23+D24</f>
+      </c>
+      <c r="G24" s="43">
+        <f>F24/$D$32</f>
+      </c>
+      <c r="H24" s="41">
+        <f>H23-D23</f>
+      </c>
+      <c r="I24" s="43">
+        <f>H24/$D$32</f>
+      </c>
+      <c r="J24" s="42">
+        <f>C24*D24</f>
+      </c>
+      <c r="K24" s="42">
+        <f>C24-$B$34</f>
+      </c>
+      <c r="L24" s="42">
+        <f>D24*ABS(K24)</f>
+      </c>
+      <c r="M24" s="42">
+        <f>D24*(K24*K24)</f>
+      </c>
+      <c r="N24" s="42">
+        <f>D24*(K24^3)</f>
+      </c>
+      <c r="O24" s="42">
+        <f>D24*(K24^4)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="41">
+        <f>B24+1</f>
+      </c>
+      <c r="B25" s="41">
+        <f>A25+15</f>
+      </c>
+      <c r="C25" s="42">
+        <f>AVERAGE(A25:B25)</f>
+      </c>
+      <c r="D25" s="41">
+        <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A25, $A$2:$J$19, "&lt;="&amp;B25)</f>
+      </c>
+      <c r="E25" s="43">
+        <f>D25/$D$32</f>
+      </c>
+      <c r="F25" s="41">
+        <f>F24+D25</f>
+      </c>
+      <c r="G25" s="43">
+        <f>F25/$D$32</f>
+      </c>
+      <c r="H25" s="41">
+        <f>H24-D24</f>
+      </c>
+      <c r="I25" s="43">
+        <f>H25/$D$32</f>
+      </c>
+      <c r="J25" s="42">
+        <f>C25*D25</f>
+      </c>
+      <c r="K25" s="42">
+        <f>C25-$B$34</f>
+      </c>
+      <c r="L25" s="42">
+        <f>D25*ABS(K25)</f>
+      </c>
+      <c r="M25" s="42">
+        <f>D25*(K25*K25)</f>
+      </c>
+      <c r="N25" s="42">
+        <f>D25*(K25^3)</f>
+      </c>
+      <c r="O25" s="42">
+        <f>D25*(K25^4)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="41">
+        <f>B25+1</f>
+      </c>
+      <c r="B26" s="41">
+        <f>A26+15</f>
+      </c>
+      <c r="C26" s="42">
+        <f>AVERAGE(A26:B26)</f>
+      </c>
+      <c r="D26" s="41">
+        <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A26, $A$2:$J$19, "&lt;="&amp;B26)</f>
+      </c>
+      <c r="E26" s="43">
+        <f>D26/$D$32</f>
+      </c>
+      <c r="F26" s="41">
+        <f>F25+D26</f>
+      </c>
+      <c r="G26" s="43">
+        <f>F26/$D$32</f>
+      </c>
+      <c r="H26" s="41">
+        <f>H25-D25</f>
+      </c>
+      <c r="I26" s="43">
+        <f>H26/$D$32</f>
+      </c>
+      <c r="J26" s="41">
+        <f>C26*D26</f>
+      </c>
+      <c r="K26" s="42">
+        <f>C26-$B$34</f>
+      </c>
+      <c r="L26" s="42">
+        <f>D26*ABS(K26)</f>
+      </c>
+      <c r="M26" s="42">
+        <f>D26*(K26*K26)</f>
+      </c>
+      <c r="N26" s="42">
+        <f>D26*(K26^3)</f>
+      </c>
+      <c r="O26" s="42">
+        <f>D26*(K26^4)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="41">
+        <f>B26+1</f>
+      </c>
+      <c r="B27" s="41">
+        <f>A27+15</f>
+      </c>
+      <c r="C27" s="42">
+        <f>AVERAGE(A27:B27)</f>
+      </c>
+      <c r="D27" s="41">
+        <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A27, $A$2:$J$19, "&lt;="&amp;B27)</f>
+      </c>
+      <c r="E27" s="43">
+        <f>D27/$D$32</f>
+      </c>
+      <c r="F27" s="44">
+        <f>F26+D27</f>
+      </c>
+      <c r="G27" s="43">
+        <f>F27/$D$32</f>
+      </c>
+      <c r="H27" s="41">
+        <f>H26-D26</f>
+      </c>
+      <c r="I27" s="43">
+        <f>H27/$D$32</f>
+      </c>
+      <c r="J27" s="42">
+        <f>C27*D27</f>
+      </c>
+      <c r="K27" s="42">
+        <f>C27-$B$34</f>
+      </c>
+      <c r="L27" s="42">
+        <f>D27*ABS(K27)</f>
+      </c>
+      <c r="M27" s="42">
+        <f>D27*(K27*K27)</f>
+      </c>
+      <c r="N27" s="42">
+        <f>D27*(K27^3)</f>
+      </c>
+      <c r="O27" s="42">
+        <f>D27*(K27^4)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="41">
+        <f>B27+1</f>
+      </c>
+      <c r="B28" s="41">
+        <f>A28+15</f>
+      </c>
+      <c r="C28" s="42">
+        <f>AVERAGE(A28:B28)</f>
+      </c>
+      <c r="D28" s="41">
+        <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A28, $A$2:$J$19, "&lt;="&amp;B28)</f>
+      </c>
+      <c r="E28" s="43">
+        <f>D28/$D$32</f>
+      </c>
+      <c r="F28" s="41">
+        <f>F27+D28</f>
+      </c>
+      <c r="G28" s="43">
+        <f>F28/$D$32</f>
+      </c>
+      <c r="H28" s="41">
+        <f>H27-D27</f>
+      </c>
+      <c r="I28" s="43">
+        <f>H28/$D$32</f>
+      </c>
+      <c r="J28" s="41">
+        <f>C28*D28</f>
+      </c>
+      <c r="K28" s="42">
+        <f>C28-$B$34</f>
+      </c>
+      <c r="L28" s="42">
+        <f>D28*ABS(K28)</f>
+      </c>
+      <c r="M28" s="42">
+        <f>D28*(K28*K28)</f>
+      </c>
+      <c r="N28" s="42">
+        <f>D28*(K28^3)</f>
+      </c>
+      <c r="O28" s="42">
+        <f>D28*(K28^4)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="41">
+        <f>B28+1</f>
+      </c>
+      <c r="B29" s="41">
+        <f>A29+15</f>
+      </c>
+      <c r="C29" s="42">
+        <f>AVERAGE(A29:B29)</f>
+      </c>
+      <c r="D29" s="41">
+        <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A29, $A$2:$J$19, "&lt;="&amp;B29)</f>
+      </c>
+      <c r="E29" s="43">
+        <f>D29/$D$32</f>
+      </c>
+      <c r="F29" s="41">
+        <f>F28+D29</f>
+      </c>
+      <c r="G29" s="43">
+        <f>F29/$D$32</f>
+      </c>
+      <c r="H29" s="41">
+        <f>H28-D28</f>
+      </c>
+      <c r="I29" s="43">
+        <f>H29/$D$32</f>
+      </c>
+      <c r="J29" s="42">
+        <f>C29*D29</f>
+      </c>
+      <c r="K29" s="42">
+        <f>C29-$B$34</f>
+      </c>
+      <c r="L29" s="42">
+        <f>D29*ABS(K29)</f>
+      </c>
+      <c r="M29" s="42">
+        <f>D29*(K29*K29)</f>
+      </c>
+      <c r="N29" s="42">
+        <f>D29*(K29^3)</f>
+      </c>
+      <c r="O29" s="42">
+        <f>D29*(K29^4)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="41">
+        <f>B29+1</f>
+      </c>
+      <c r="B30" s="41">
+        <f>A30+15</f>
+      </c>
+      <c r="C30" s="42">
+        <f>AVERAGE(A30:B30)</f>
+      </c>
+      <c r="D30" s="41">
+        <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A30, $A$2:$J$19, "&lt;="&amp;B30)</f>
+      </c>
+      <c r="E30" s="43">
+        <f>D30/$D$32</f>
+      </c>
+      <c r="F30" s="41">
+        <f>F29+D30</f>
+      </c>
+      <c r="G30" s="43">
+        <f>F30/$D$32</f>
+      </c>
+      <c r="H30" s="41">
+        <f>H29-D29</f>
+      </c>
+      <c r="I30" s="43">
+        <f>H30/$D$32</f>
+      </c>
+      <c r="J30" s="41">
+        <f>C30*D30</f>
+      </c>
+      <c r="K30" s="42">
+        <f>C30-$B$34</f>
+      </c>
+      <c r="L30" s="42">
+        <f>D30*ABS(K30)</f>
+      </c>
+      <c r="M30" s="42">
+        <f>D30*(K30*K30)</f>
+      </c>
+      <c r="N30" s="42">
+        <f>D30*(K30^3)</f>
+      </c>
+      <c r="O30" s="42">
+        <f>D30*(K30^4)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="41">
+        <f>B30+1</f>
+      </c>
+      <c r="B31" s="41">
+        <f>A31+15</f>
+      </c>
+      <c r="C31" s="42">
+        <f>AVERAGE(A31:B31)</f>
+      </c>
+      <c r="D31" s="41">
+        <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A31, $A$2:$J$19, "&lt;="&amp;B31)</f>
+      </c>
+      <c r="E31" s="43">
+        <f>D31/$D$32</f>
+      </c>
+      <c r="F31" s="41">
+        <f>F30+D31</f>
+      </c>
+      <c r="G31" s="43">
+        <f>F31/$D$32</f>
+      </c>
+      <c r="H31" s="41">
+        <f>H30-D30</f>
+      </c>
+      <c r="I31" s="43">
+        <f>H31/$D$32</f>
+      </c>
+      <c r="J31" s="41">
+        <f>C31*D31</f>
+      </c>
+      <c r="K31" s="42">
+        <f>C31-$B$34</f>
+      </c>
+      <c r="L31" s="42">
+        <f>D31*ABS(K31)</f>
+      </c>
+      <c r="M31" s="42">
+        <f>D31*(K31*K31)</f>
+      </c>
+      <c r="N31" s="42">
+        <f>D31*(K31^3)</f>
+      </c>
+      <c r="O31" s="42">
+        <f>D31*(K31^4)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="45"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41">
         <f>SUM(D23:D31)</f>
-        <v>180</v>
-      </c>
-      <c r="E32" s="25">
+      </c>
+      <c r="E32" s="43">
         <f>SUM(E23:E31)</f>
-        <v>1</v>
-      </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="23">
+      </c>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="41">
         <f>SUM(J23:J31)</f>
-        <v>76886</v>
-      </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="24">
+      </c>
+      <c r="K32" s="40"/>
+      <c r="L32" s="42">
         <f>SUM(L23:L31)</f>
-        <v>6084.2666666666673</v>
-      </c>
-      <c r="M32" s="24">
+      </c>
+      <c r="M32" s="42">
         <f>SUM(M23:M31)</f>
-        <v>274857.24444444443</v>
-      </c>
-      <c r="N32" s="24">
+      </c>
+      <c r="N32" s="42">
         <f>SUM(N23:N31)</f>
-        <v>456517.15160493786</v>
-      </c>
-      <c r="O32" s="24">
+      </c>
+      <c r="O32" s="42">
         <f>SUM(O23:O31)</f>
-        <v>771358157.6512264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2285,14 +2135,14 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>15</v>
+      <c r="O33" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="47" t="s">
+        <v>20</v>
       </c>
       <c r="B34" s="1">
         <f>J32/D32</f>
-        <v>427.14444444444445</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2306,21 +2156,20 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>16</v>
+      <c r="O34" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="47" t="s">
+        <v>23</v>
       </c>
       <c r="B35" s="1">
         <f>A27+((D35-F26)/D27)*N10</f>
-        <v>428.17391304347825</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>17</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="D35" s="3">
         <f>D32/2</f>
-        <v>90</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="3"/>
@@ -2329,36 +2178,33 @@
       <c r="I35" s="4"/>
       <c r="J35" s="3"/>
       <c r="K35" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L35" s="1">
         <f>N32/(D32*B65^3)</f>
-        <v>4.250427072720725E-2</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>37</v>
+      <c r="O35" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="47" t="s">
+        <v>43</v>
       </c>
       <c r="B36" s="1">
         <f>A25+(D36/(D36+F36)*N10)</f>
-        <v>399.38461538461536</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>38</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>44</v>
       </c>
       <c r="D36" s="3">
         <f>D25-D24</f>
-        <v>6</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>39</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>45</v>
       </c>
       <c r="F36" s="3">
         <f>D25-D26</f>
-        <v>7</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="3"/>
@@ -2368,8 +2214,9 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O36" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2381,16 +2228,16 @@
       <c r="I37" s="4"/>
       <c r="J37" s="3"/>
       <c r="K37" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="L37" s="1">
         <f>O32/(D32*B65^4)</f>
-        <v>1.8378675320775366</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O37" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2405,8 +2252,9 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O38" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2421,21 +2269,20 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
-        <v>40</v>
+      <c r="O39" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="47" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="1">
         <f>A27+((D40-F26)/D27)*N10</f>
-        <v>428.17391304347825</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>17</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="D40" s="3">
         <f>D32*2/4</f>
-        <v>90</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="3"/>
@@ -2447,8 +2294,9 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O40" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2463,8 +2311,9 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O41" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2479,8 +2328,9 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O42" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2495,8 +2345,9 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O43" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="3"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2511,8 +2362,9 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O44" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2527,21 +2379,20 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
-        <v>41</v>
+      <c r="O45" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="47" t="s">
+        <v>47</v>
       </c>
       <c r="B46" s="1">
         <f>A29+((D46-F28)/D29)*N10</f>
-        <v>467.42857142857144</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>17</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="D46" s="3">
         <f>D32*8/10</f>
-        <v>144</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="3"/>
@@ -2553,8 +2404,9 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O46" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2569,8 +2421,9 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O47" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2585,8 +2438,9 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O48" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2601,8 +2455,9 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O49" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2617,8 +2472,9 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O50" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2633,21 +2489,20 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
-        <v>42</v>
+      <c r="O51" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="47" t="s">
+        <v>48</v>
       </c>
       <c r="B52" s="1">
         <f>A25+((D52-F24)/D25)*N10</f>
-        <v>407.23199999999997</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>17</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="D52" s="1">
         <f>D32*36/100</f>
-        <v>64.8</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="3"/>
@@ -2659,8 +2514,9 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O52" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="3"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2675,8 +2531,9 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O53" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="3"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2691,8 +2548,9 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O54" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2707,8 +2565,9 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O55" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2723,8 +2582,9 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O56" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2739,14 +2599,14 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
-        <v>26</v>
+      <c r="O57" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="47" t="s">
+        <v>30</v>
       </c>
       <c r="B58" s="3">
         <f>M7-M6</f>
-        <v>135</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2760,8 +2620,9 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O58" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2776,8 +2637,9 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O59" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2792,8 +2654,9 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O60" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2808,14 +2671,14 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="29" t="s">
-        <v>43</v>
+      <c r="O61" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="47" t="s">
+        <v>49</v>
       </c>
       <c r="B62" s="1">
         <f>L32/D32</f>
-        <v>33.801481481481488</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2829,8 +2692,9 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O62" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2845,8 +2709,9 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O63" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2861,14 +2726,14 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29" t="s">
-        <v>27</v>
+      <c r="O64" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="B65" s="1">
         <f>SQRT(M32/D32)</f>
-        <v>39.0766514859964</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2882,8 +2747,9 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O65" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2898,8 +2764,9 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O66" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2914,14 +2781,14 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29" t="s">
-        <v>28</v>
+      <c r="O67" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="47" t="s">
+        <v>32</v>
       </c>
       <c r="B68" s="1">
         <f>B65*B65</f>
-        <v>1526.9846913580247</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2935,41 +2802,49 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="3"/>
+      <c r="O68" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="71" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="19" customWidth="1"/>
-    <col min="3" max="8" width="11.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="28" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="29" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="31" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="32" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="31" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="31" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="33" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="31" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="33" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="34" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1">
         <v>70</v>
       </c>
@@ -2983,350 +2858,380 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="3"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="7">
         <v>11</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>8</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <v>7</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>11</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>6</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
         <v>11</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="3"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="9">
         <v>11</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="10">
         <v>11</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <v>6</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="10">
         <v>9</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="10">
         <v>7</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="10">
         <v>10</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="3"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="9">
         <v>11</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>9</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <v>7</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="10">
         <v>8</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="10">
         <v>6</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="10">
         <v>5</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="12">
         <f>COUNT(A2:G11)</f>
-        <v>70</v>
       </c>
       <c r="K4" s="1"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="3"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="9">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>5</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <v>5</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="10">
         <v>6</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="10">
         <v>8</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="10">
         <v>8</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="12">
         <f>MIN(A2:G11)</f>
-        <v>5</v>
       </c>
       <c r="K5" s="1"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="3"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="9">
         <v>8</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>11</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <v>8</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
         <v>8</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="10">
         <v>8</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <v>10</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="12">
         <f>MAX(A2:G11)</f>
-        <v>11</v>
       </c>
       <c r="K6" s="1"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="3"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="9">
         <v>10</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>9</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
         <v>7</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="10">
         <v>9</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="10">
         <v>6</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="10">
         <v>7</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="3"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="9">
         <v>9</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>9</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <v>11</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="10">
         <v>10</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="10">
         <v>7</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="10">
         <v>10</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="10">
         <v>8</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="3"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="9">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>10</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>5</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="10">
         <v>5</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="10">
         <v>5</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="10">
         <v>6</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="10">
         <v>10</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="3"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>10</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="10">
         <v>7</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="10">
         <v>9</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="10">
         <v>9</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="10">
         <v>10</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="3"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>6</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="10">
         <v>10</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="10">
         <v>7</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="10">
         <v>9</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="10">
         <v>7</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="3"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="1"/>
@@ -3336,511 +3241,464 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="3"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="36" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="3"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="6"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>49</v>
-      </c>
+      <c r="L14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="23">
         <v>5</v>
       </c>
-      <c r="B15" s="15">
-        <f t="shared" ref="B15:B21" si="0">COUNTIF($A$2:$G$11,A15)</f>
-        <v>7</v>
-      </c>
-      <c r="C15" s="16">
-        <f t="shared" ref="C15:C21" si="1">B15/$B$22</f>
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="B15" s="23">
+        <f>COUNTIF($A$2:$G$11,A15)</f>
+      </c>
+      <c r="C15" s="24">
+        <f>B15/$B$22</f>
+      </c>
+      <c r="D15" s="23">
         <f>B15</f>
-        <v>7</v>
-      </c>
-      <c r="E15" s="16">
-        <f t="shared" ref="E15:E21" si="2">D15/$B$22</f>
-        <v>0.1</v>
-      </c>
-      <c r="F15" s="15">
+      </c>
+      <c r="E15" s="24">
+        <f>D15/$B$22</f>
+      </c>
+      <c r="F15" s="23">
         <f>B22</f>
-        <v>70</v>
-      </c>
-      <c r="G15" s="16">
-        <f t="shared" ref="G15:G21" si="3">F15/$B$22</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="15">
-        <f t="shared" ref="H15:H16" si="4">B15*A15</f>
-        <v>35</v>
-      </c>
-      <c r="I15" s="17">
-        <f t="shared" ref="I15:I21" si="5">A15-$K$25</f>
-        <v>-3.1285714285714281</v>
-      </c>
-      <c r="J15" s="17">
-        <f t="shared" ref="J15:J21" si="6">B15*ABS(I15)</f>
-        <v>21.9</v>
-      </c>
-      <c r="K15" s="17">
+      </c>
+      <c r="G15" s="24">
+        <f>F15/$B$22</f>
+      </c>
+      <c r="H15" s="23">
+        <f>B15*A15</f>
+      </c>
+      <c r="I15" s="25">
+        <f>A15-$K$25</f>
+      </c>
+      <c r="J15" s="25">
+        <f>B15*ABS(I15)</f>
+      </c>
+      <c r="K15" s="25">
         <f>B15*(I15*I15)</f>
-        <v>68.515714285714267</v>
-      </c>
-      <c r="L15" s="17">
+      </c>
+      <c r="L15" s="25">
         <f>B15*I15^3</f>
-        <v>-214.35630612244887</v>
-      </c>
-      <c r="M15" s="17">
+      </c>
+      <c r="M15" s="25">
         <f>B15*I15^4</f>
-        <v>670.62901486880423</v>
-      </c>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="23">
         <v>6</v>
       </c>
-      <c r="B16" s="15">
-        <f t="shared" si="0"/>
+      <c r="B16" s="23">
+        <f>COUNTIF($A$2:$G$11,A16)</f>
+      </c>
+      <c r="C16" s="24">
+        <f>B16/$B$22</f>
+      </c>
+      <c r="D16" s="23">
+        <f>D15+B16</f>
+      </c>
+      <c r="E16" s="24">
+        <f>D16/$B$22</f>
+      </c>
+      <c r="F16" s="23">
+        <f>F15-B15</f>
+      </c>
+      <c r="G16" s="24">
+        <f>F16/$B$22</f>
+      </c>
+      <c r="H16" s="23">
+        <f>B16*A16</f>
+      </c>
+      <c r="I16" s="25">
+        <f>A16-$K$25</f>
+      </c>
+      <c r="J16" s="25">
+        <f>B16*ABS(I16)</f>
+      </c>
+      <c r="K16" s="25">
+        <f>B16*(I16*I16)</f>
+      </c>
+      <c r="L16" s="25">
+        <f>B16*I16^3</f>
+      </c>
+      <c r="M16" s="25">
+        <f>B16*I16^4</f>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="23">
+        <v>7</v>
+      </c>
+      <c r="B17" s="23">
+        <f>COUNTIF($A$2:$G$11,A17)</f>
+      </c>
+      <c r="C17" s="24">
+        <f>B17/$B$22</f>
+      </c>
+      <c r="D17" s="23">
+        <f>D16+B17</f>
+      </c>
+      <c r="E17" s="24">
+        <f>D17/$B$22</f>
+      </c>
+      <c r="F17" s="23">
+        <f>F16-B16</f>
+      </c>
+      <c r="G17" s="24">
+        <f>F17/$B$22</f>
+      </c>
+      <c r="H17" s="23">
+        <f>B17*A17</f>
+      </c>
+      <c r="I17" s="25">
+        <f>A17-$K$25</f>
+      </c>
+      <c r="J17" s="25">
+        <f>B17*ABS(I17)</f>
+      </c>
+      <c r="K17" s="25">
+        <f>B17*(I17*I17)</f>
+      </c>
+      <c r="L17" s="25">
+        <f>B17*I17^3</f>
+      </c>
+      <c r="M17" s="25">
+        <f>B17*I17^4</f>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="23">
+        <v>8</v>
+      </c>
+      <c r="B18" s="23">
+        <f>COUNTIF($A$2:$G$11,A18)</f>
+      </c>
+      <c r="C18" s="24">
+        <f>B18/$B$22</f>
+      </c>
+      <c r="D18" s="23">
+        <f>D17+B18</f>
+      </c>
+      <c r="E18" s="24">
+        <f>D18/$B$22</f>
+      </c>
+      <c r="F18" s="23">
+        <f>F17-B17</f>
+      </c>
+      <c r="G18" s="24">
+        <f>F18/$B$22</f>
+      </c>
+      <c r="H18" s="23">
+        <f>B18*A18</f>
+      </c>
+      <c r="I18" s="25">
+        <f>A18-$K$25</f>
+      </c>
+      <c r="J18" s="25">
+        <f>B18*ABS(I18)</f>
+      </c>
+      <c r="K18" s="25">
+        <f>B18*(I18*I18)</f>
+      </c>
+      <c r="L18" s="25">
+        <f>B18*I18^3</f>
+      </c>
+      <c r="M18" s="25">
+        <f>B18*I18^4</f>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="23">
         <v>9</v>
       </c>
-      <c r="C16" s="16">
-        <f t="shared" si="1"/>
-        <v>0.12857142857142856</v>
-      </c>
-      <c r="D16" s="15">
-        <f t="shared" ref="D16:D21" si="7">D15+B16</f>
-        <v>16</v>
-      </c>
-      <c r="E16" s="16">
-        <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="F16" s="15">
-        <f t="shared" ref="F16:F21" si="8">F15-B15</f>
-        <v>63</v>
-      </c>
-      <c r="G16" s="16">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="H16" s="15">
-        <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
-      <c r="I16" s="17">
-        <f t="shared" si="5"/>
-        <v>-2.1285714285714281</v>
-      </c>
-      <c r="J16" s="17">
-        <f t="shared" si="6"/>
-        <v>19.157142857142851</v>
-      </c>
-      <c r="K16" s="17">
-        <f t="shared" ref="K16:K21" si="9">B16*(I16*I16)</f>
-        <v>40.777346938775494</v>
-      </c>
-      <c r="L16" s="17">
-        <f t="shared" ref="L16:L21" si="10">B16*I16^3</f>
-        <v>-86.797495626822098</v>
-      </c>
-      <c r="M16" s="17">
-        <f t="shared" ref="M16:M21" si="11">B16*I16^4</f>
-        <v>184.754669262807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>7</v>
-      </c>
-      <c r="B17" s="15">
-        <f t="shared" si="0"/>
+      <c r="B19" s="23">
+        <f>COUNTIF($A$2:$G$11,A19)</f>
+      </c>
+      <c r="C19" s="24">
+        <f>B19/$B$22</f>
+      </c>
+      <c r="D19" s="23">
+        <f>D18+B19</f>
+      </c>
+      <c r="E19" s="24">
+        <f>D19/$B$22</f>
+      </c>
+      <c r="F19" s="23">
+        <f>F18-B18</f>
+      </c>
+      <c r="G19" s="24">
+        <f>F19/$B$22</f>
+      </c>
+      <c r="H19" s="23">
+        <f>B19*A19</f>
+      </c>
+      <c r="I19" s="25">
+        <f>A19-$K$25</f>
+      </c>
+      <c r="J19" s="25">
+        <f>B19*ABS(I19)</f>
+      </c>
+      <c r="K19" s="25">
+        <f>B19*(I19*I19)</f>
+      </c>
+      <c r="L19" s="25">
+        <f>B19*I19^3</f>
+      </c>
+      <c r="M19" s="25">
+        <f>B19*I19^4</f>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="23">
+        <v>10</v>
+      </c>
+      <c r="B20" s="23">
+        <f>COUNTIF($A$2:$G$11,A20)</f>
+      </c>
+      <c r="C20" s="24">
+        <f>B20/$B$22</f>
+      </c>
+      <c r="D20" s="23">
+        <f>D19+B20</f>
+      </c>
+      <c r="E20" s="24">
+        <f>D20/$B$22</f>
+      </c>
+      <c r="F20" s="23">
+        <f>F19-B19</f>
+      </c>
+      <c r="G20" s="24">
+        <f>F20/$B$22</f>
+      </c>
+      <c r="H20" s="23">
+        <f>B20*A20</f>
+      </c>
+      <c r="I20" s="25">
+        <f>A20-$K$25</f>
+      </c>
+      <c r="J20" s="25">
+        <f>B20*ABS(I20)</f>
+      </c>
+      <c r="K20" s="25">
+        <f>B20*(I20*I20)</f>
+      </c>
+      <c r="L20" s="25">
+        <f>B20*I20^3</f>
+      </c>
+      <c r="M20" s="25">
+        <f>B20*I20^4</f>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="23">
         <v>11</v>
       </c>
-      <c r="C17" s="16">
-        <f t="shared" si="1"/>
-        <v>0.15714285714285714</v>
-      </c>
-      <c r="D17" s="15">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="E17" s="16">
-        <f t="shared" si="2"/>
-        <v>0.38571428571428573</v>
-      </c>
-      <c r="F17" s="15">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-      <c r="G17" s="16">
-        <f t="shared" si="3"/>
-        <v>0.77142857142857146</v>
-      </c>
-      <c r="H17" s="15">
-        <f>B17*A17</f>
-        <v>77</v>
-      </c>
-      <c r="I17" s="17">
-        <f t="shared" si="5"/>
-        <v>-1.1285714285714281</v>
-      </c>
-      <c r="J17" s="17">
-        <f t="shared" si="6"/>
-        <v>12.414285714285709</v>
-      </c>
-      <c r="K17" s="17">
-        <f t="shared" si="9"/>
-        <v>14.010408163265295</v>
-      </c>
-      <c r="L17" s="17">
-        <f t="shared" si="10"/>
-        <v>-15.811746355685113</v>
-      </c>
-      <c r="M17" s="17">
-        <f t="shared" si="11"/>
-        <v>17.844685172844621</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>8</v>
-      </c>
-      <c r="B18" s="15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C18" s="16">
-        <f t="shared" si="1"/>
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="D18" s="15">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="E18" s="16">
-        <f t="shared" si="2"/>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="F18" s="15">
-        <f t="shared" si="8"/>
-        <v>43</v>
-      </c>
-      <c r="G18" s="16">
-        <f t="shared" si="3"/>
-        <v>0.61428571428571432</v>
-      </c>
-      <c r="H18" s="15">
-        <f>B18*A18</f>
-        <v>96</v>
-      </c>
-      <c r="I18" s="17">
-        <f t="shared" si="5"/>
-        <v>-0.12857142857142811</v>
-      </c>
-      <c r="J18" s="17">
-        <f t="shared" si="6"/>
-        <v>1.5428571428571374</v>
-      </c>
-      <c r="K18" s="17">
-        <f t="shared" si="9"/>
-        <v>0.19836734693877411</v>
-      </c>
-      <c r="L18" s="17">
-        <f t="shared" si="10"/>
-        <v>-2.5504373177842293E-2</v>
-      </c>
-      <c r="M18" s="17">
-        <f t="shared" si="11"/>
-        <v>3.2791336942939973E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <v>9</v>
-      </c>
-      <c r="B19" s="15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C19" s="16">
-        <f t="shared" si="1"/>
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="D19" s="15">
-        <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
-      <c r="E19" s="16">
-        <f t="shared" si="2"/>
-        <v>0.72857142857142854</v>
-      </c>
-      <c r="F19" s="15">
-        <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="G19" s="16">
-        <f t="shared" si="3"/>
-        <v>0.44285714285714284</v>
-      </c>
-      <c r="H19" s="15">
-        <f>B19*A19</f>
-        <v>108</v>
-      </c>
-      <c r="I19" s="17">
-        <f t="shared" si="5"/>
-        <v>0.87142857142857189</v>
-      </c>
-      <c r="J19" s="17">
-        <f t="shared" si="6"/>
-        <v>10.457142857142863</v>
-      </c>
-      <c r="K19" s="17">
-        <f t="shared" si="9"/>
-        <v>9.1126530612244991</v>
-      </c>
-      <c r="L19" s="17">
-        <f t="shared" si="10"/>
-        <v>7.9410262390670674</v>
-      </c>
-      <c r="M19" s="17">
-        <f t="shared" si="11"/>
-        <v>6.92003715118702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <v>10</v>
-      </c>
-      <c r="B20" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C20" s="16">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="D20" s="15">
-        <f t="shared" si="7"/>
-        <v>61</v>
-      </c>
-      <c r="E20" s="16">
-        <f t="shared" si="2"/>
-        <v>0.87142857142857144</v>
-      </c>
-      <c r="F20" s="15">
-        <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="G20" s="16">
-        <f t="shared" si="3"/>
-        <v>0.27142857142857141</v>
-      </c>
-      <c r="H20" s="15">
-        <f>B20*A20</f>
-        <v>100</v>
-      </c>
-      <c r="I20" s="17">
-        <f t="shared" si="5"/>
-        <v>1.8714285714285719</v>
-      </c>
-      <c r="J20" s="17">
-        <f t="shared" si="6"/>
-        <v>18.714285714285719</v>
-      </c>
-      <c r="K20" s="17">
-        <f>B20*(I20*I20)</f>
-        <v>35.022448979591857</v>
-      </c>
-      <c r="L20" s="17">
-        <f t="shared" si="10"/>
-        <v>65.542011661807621</v>
-      </c>
-      <c r="M20" s="17">
-        <f t="shared" si="11"/>
-        <v>122.65719325281145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
-        <v>11</v>
-      </c>
-      <c r="B21" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C21" s="16">
-        <f t="shared" si="1"/>
-        <v>0.12857142857142856</v>
-      </c>
-      <c r="D21" s="15">
-        <f t="shared" si="7"/>
-        <v>70</v>
-      </c>
-      <c r="E21" s="16">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="15">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="G21" s="16">
-        <f t="shared" si="3"/>
-        <v>0.12857142857142856</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="B21" s="23">
+        <f>COUNTIF($A$2:$G$11,A21)</f>
+      </c>
+      <c r="C21" s="24">
+        <f>B21/$B$22</f>
+      </c>
+      <c r="D21" s="23">
+        <f>D20+B21</f>
+      </c>
+      <c r="E21" s="24">
+        <f>D21/$B$22</f>
+      </c>
+      <c r="F21" s="23">
+        <f>F20-B20</f>
+      </c>
+      <c r="G21" s="24">
+        <f>F21/$B$22</f>
+      </c>
+      <c r="H21" s="23">
         <f>B21*A21</f>
-        <v>99</v>
-      </c>
-      <c r="I21" s="17">
-        <f t="shared" si="5"/>
-        <v>2.8714285714285719</v>
-      </c>
-      <c r="J21" s="17">
-        <f t="shared" si="6"/>
-        <v>25.842857142857149</v>
-      </c>
-      <c r="K21" s="17">
-        <f t="shared" si="9"/>
-        <v>74.205918367346968</v>
-      </c>
-      <c r="L21" s="17">
-        <f t="shared" si="10"/>
-        <v>213.07699416909634</v>
-      </c>
-      <c r="M21" s="17">
-        <f t="shared" si="11"/>
-        <v>611.83536897126237</v>
-      </c>
+      </c>
+      <c r="I21" s="25">
+        <f>A21-$K$25</f>
+      </c>
+      <c r="J21" s="25">
+        <f>B21*ABS(I21)</f>
+      </c>
+      <c r="K21" s="25">
+        <f>B21*(I21*I21)</f>
+      </c>
+      <c r="L21" s="25">
+        <f>B21*I21^3</f>
+      </c>
+      <c r="M21" s="25">
+        <f>B21*I21^4</f>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="6"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="23">
+        <f>SUM(B15:B21)</f>
+      </c>
+      <c r="C22" s="24">
+        <f>SUM(C15:C21)</f>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="15">
-        <f>SUM(B15:B21)</f>
-        <v>70</v>
-      </c>
-      <c r="C22" s="16">
-        <f>SUM(C15:C21)</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="15">
+      <c r="E22" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="23">
         <f>SUM(H15:H21)</f>
-        <v>569</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="17">
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="25">
         <f>SUM(J15:J21)</f>
-        <v>110.02857142857144</v>
-      </c>
-      <c r="K22" s="17">
+      </c>
+      <c r="K22" s="25">
         <f>SUM(K15:K21)</f>
-        <v>241.84285714285716</v>
-      </c>
-      <c r="L22" s="17">
+      </c>
+      <c r="L22" s="25">
         <f>SUM(L15:L21)</f>
-        <v>-30.431020408162908</v>
-      </c>
-      <c r="M22" s="17">
+      </c>
+      <c r="M22" s="25">
         <f>SUM(M15:M21)</f>
-        <v>1614.6442478134109</v>
-      </c>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="6"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12"/>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="12"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="1"/>
@@ -3850,36 +3708,39 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="3"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="10">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="12"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="12">
         <v>17</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="12">
         <v>7</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="1" t="s">
-        <v>46</v>
+      <c r="H24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I24" s="1">
         <f>L22/(B22*B52^3)</f>
-        <v>-6.7696409931673404E-2</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24"/>
+      <c r="K24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="27"/>
       <c r="N24" s="1"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3887,17 +3748,16 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="9">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="11">
         <f>$B$22*1/4</f>
-        <v>17.5</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="10">
+      <c r="E25" s="12">
         <v>7</v>
       </c>
       <c r="F25" s="3"/>
@@ -3905,11 +3765,11 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="17">
+      <c r="K25" s="25">
         <f>H22/B22</f>
-        <v>8.1285714285714281</v>
-      </c>
-      <c r="M25"/>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="27"/>
       <c r="N25" s="1"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3917,42 +3777,42 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="10">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="12">
         <v>18</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="12">
         <v>7</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="1" t="s">
-        <v>47</v>
+      <c r="H26" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I26" s="1">
         <f>M22/(B22*B52^4)</f>
-        <v>1.9324504180854689</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
-      <c r="M26"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="27"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="10">
+      <c r="O26" s="12">
         <v>35</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="12">
         <v>8</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="12"/>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="12"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="1"/>
@@ -3961,28 +3821,27 @@
       <c r="H27" s="3"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N27" s="9">
+      <c r="K27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="11">
         <f>(B22+1)/2</f>
-        <v>35.5</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="10">
+      <c r="Q27" s="12">
         <f>AVERAGE(P26:P28)</f>
-        <v>8</v>
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="12"/>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="12"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="1"/>
@@ -3991,31 +3850,30 @@
       <c r="H28" s="3"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="15">
+      <c r="K28" s="23">
         <f>Q27</f>
-        <v>8</v>
-      </c>
-      <c r="M28"/>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="27"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="10">
+      <c r="O28" s="12">
         <v>36</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="12">
         <v>8</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="10">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="12">
         <v>52</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="12">
         <f>A19</f>
-        <v>9</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
@@ -4024,25 +3882,26 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="3"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="9">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="11">
         <f>$B$22*3/4</f>
-        <v>52.5</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="9">
+      <c r="E30" s="11">
         <f>D29+0.5</f>
-        <v>9.5</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="4"/>
@@ -4050,19 +3909,22 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="3"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="6"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="10">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="12"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="12">
         <v>53</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="12">
         <v>10</v>
       </c>
       <c r="E31" s="1"/>
@@ -4072,15 +3934,18 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="3"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="6"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="12"/>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="12"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="1"/>
@@ -4090,15 +3955,18 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="3"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="6"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="12"/>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="12"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="1"/>
@@ -4108,15 +3976,18 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
+      <c r="L33" s="5"/>
       <c r="M33" s="3"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="6"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="12"/>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="12"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="1"/>
@@ -4126,23 +3997,24 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
+      <c r="L34" s="5"/>
       <c r="M34" s="3"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="6"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="10">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="12">
         <f>$B$22*6/10</f>
-        <v>42</v>
-      </c>
-      <c r="C35" s="10">
+      </c>
+      <c r="C35" s="12">
         <f>A19</f>
-        <v>9</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="1"/>
@@ -4152,15 +4024,18 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
+      <c r="L35" s="5"/>
       <c r="M35" s="3"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="6"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="12"/>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="12"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="1"/>
@@ -4170,15 +4045,18 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
+      <c r="L36" s="5"/>
       <c r="M36" s="3"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="6"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="12"/>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="12"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="1"/>
@@ -4188,15 +4066,18 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
+      <c r="L37" s="5"/>
       <c r="M37" s="3"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="6"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="12"/>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="12"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="1"/>
@@ -4206,23 +4087,24 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
+      <c r="L38" s="5"/>
       <c r="M38" s="3"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="6"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="10">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="12">
         <f>$B$22*9/10</f>
-        <v>63</v>
-      </c>
-      <c r="C39" s="10">
+      </c>
+      <c r="C39" s="12">
         <f>A21</f>
-        <v>11</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="1"/>
@@ -4232,15 +4114,18 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
+      <c r="L39" s="5"/>
       <c r="M39" s="3"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="6"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="12"/>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="12"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="1"/>
@@ -4250,21 +4135,23 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
+      <c r="L40" s="5"/>
       <c r="M40" s="3"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="6"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="10">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="12"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="12">
         <v>18</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="12">
         <f>A17</f>
-        <v>7</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="3"/>
@@ -4273,23 +4160,25 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
+      <c r="L41" s="5"/>
       <c r="M41" s="3"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="6"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="9">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="11">
         <f>$B$22*27/100</f>
-        <v>18.899999999999999</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="10">
+      <c r="E42" s="12">
         <v>7</v>
       </c>
       <c r="F42" s="3"/>
@@ -4298,21 +4187,23 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
+      <c r="L42" s="5"/>
       <c r="M42" s="3"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="6"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="10">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="12"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="12">
         <v>19</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="12">
         <f>A17</f>
-        <v>7</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="3"/>
@@ -4321,15 +4212,18 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
+      <c r="L43" s="5"/>
       <c r="M43" s="3"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="6"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="12"/>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="12"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="1"/>
@@ -4339,21 +4233,23 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
+      <c r="L44" s="5"/>
       <c r="M44" s="3"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="6"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="10">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="12"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="12">
         <v>51</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="12">
         <f>A18</f>
-        <v>8</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="3"/>
@@ -4362,25 +4258,26 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
+      <c r="L45" s="5"/>
       <c r="M45" s="3"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="6"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="9">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="11">
         <f>$B$22*73/100</f>
-        <v>51.1</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="9">
+      <c r="E46" s="11">
         <f>D45+0.1</f>
-        <v>8.1</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="4"/>
@@ -4388,21 +4285,23 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
+      <c r="L46" s="5"/>
       <c r="M46" s="3"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="6"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="10">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="12"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="12">
         <v>52</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="12">
         <f>A19</f>
-        <v>9</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
@@ -4411,15 +4310,18 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
+      <c r="L47" s="5"/>
       <c r="M47" s="3"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="6"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="12"/>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="12"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="1"/>
@@ -4429,15 +4331,18 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
+      <c r="L48" s="5"/>
       <c r="M48" s="3"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="6"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="12"/>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="12"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="1"/>
@@ -4447,19 +4352,21 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
+      <c r="L49" s="5"/>
       <c r="M49" s="3"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="6"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="10">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="12">
         <f>J6-J5</f>
-        <v>6</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -4470,15 +4377,18 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
+      <c r="L50" s="5"/>
       <c r="M50" s="3"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="6"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="12"/>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="12"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="1"/>
@@ -4488,19 +4398,21 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
+      <c r="L51" s="5"/>
       <c r="M51" s="3"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="6"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="9">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="11">
         <f>SQRT(K22/B22)</f>
-        <v>1.8587355807601236</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -4511,19 +4423,21 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
+      <c r="L52" s="5"/>
       <c r="M52" s="3"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="6"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="12">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="14">
         <f>B52*B52</f>
-        <v>3.4548979591836737</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4534,7 +4448,10 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
+      <c r="L53" s="5"/>
       <c r="M53" s="3"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="6"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -4544,7 +4461,6 @@
   <mergeCells count="1">
     <mergeCell ref="A13:K13"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ej.xlsx
+++ b/ej.xlsx
@@ -231,7 +231,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +242,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -417,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="43">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -431,22 +437,22 @@
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -455,34 +461,28 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -495,15 +495,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -512,28 +503,25 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -558,12 +546,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -877,36 +859,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="50" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="31" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="31" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="31" width="5.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="32" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="30" width="4.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="32" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="30" width="4.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="32" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="30" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="31" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="31" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="31" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="31" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="33" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="42" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="25" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="25" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="5.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="25" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="25" width="4.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="25" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="25" width="4.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="25" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="25" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="26" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="26" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="26" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="25" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="27" width="14.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1056,10 +1038,10 @@
         <v>486</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="35">
         <f>COUNT(A2:J19)</f>
       </c>
       <c r="N5" s="3"/>
@@ -1097,10 +1079,10 @@
         <v>486</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="35">
         <f>MIN(A2:J19)</f>
       </c>
       <c r="N6" s="3"/>
@@ -1138,10 +1120,10 @@
         <v>487</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="35">
         <f>MAX(A2:J19)</f>
       </c>
       <c r="N7" s="3"/>
@@ -1179,31 +1161,51 @@
         <v>487</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="35">
         <f>M7-M6</f>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="A9" s="9">
+        <v>363</v>
+      </c>
+      <c r="B9" s="10">
+        <v>378</v>
+      </c>
+      <c r="C9" s="10">
+        <v>392</v>
+      </c>
+      <c r="D9" s="10">
+        <v>405</v>
+      </c>
+      <c r="E9" s="10">
+        <v>420</v>
+      </c>
+      <c r="F9" s="10">
+        <v>433</v>
+      </c>
+      <c r="G9" s="10">
+        <v>445</v>
+      </c>
+      <c r="H9" s="10">
+        <v>458</v>
+      </c>
+      <c r="I9" s="10">
+        <v>473</v>
+      </c>
+      <c r="J9" s="10">
+        <v>487</v>
+      </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="36">
         <f>1+3.322*LOG(M5)</f>
       </c>
       <c r="N9" s="3"/>
@@ -1241,13 +1243,13 @@
         <v>488</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="36">
         <f>M8/M9</f>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="35">
         <f>ROUND(M10, 0)</f>
       </c>
       <c r="O10" s="5"/>
@@ -1548,7 +1550,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="9">
         <v>372</v>
       </c>
@@ -1585,7 +1587,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1619,504 +1621,504 @@
       <c r="N21" s="3"/>
       <c r="O21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="19" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="19" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="21" t="s">
+      <c r="O22" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="41">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="35">
         <f>M6</f>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="35">
         <f>A23+15</f>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="36">
         <f>AVERAGE(A23:B23)</f>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="35">
         <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A23, $A$2:$J$19, "&lt;="&amp;B23)</f>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="37">
         <f>D23/$D$32</f>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="35">
         <f>D23</f>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="37">
         <f>F23/$D$32</f>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="35">
         <f>D32</f>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="37">
         <f>H23/$D$32</f>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="35">
         <f>C23*D23</f>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="36">
         <f>C23-$B$34</f>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="36">
         <f>D23*ABS(K23)</f>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="36">
         <f>D23*(K23*K23)</f>
       </c>
-      <c r="N23" s="42">
+      <c r="N23" s="36">
         <f>D23*(K23^3)</f>
       </c>
-      <c r="O23" s="42">
+      <c r="O23" s="36">
         <f>D23*(K23^4)</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="41">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="35">
         <f>B23+1</f>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="35">
         <f>A24+15</f>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="36">
         <f>AVERAGE(A24:B24)</f>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="35">
         <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A24, $A$2:$J$19, "&lt;="&amp;B24)</f>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="37">
         <f>D24/$D$32</f>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="35">
         <f>F23+D24</f>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="37">
         <f>F24/$D$32</f>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="35">
         <f>H23-D23</f>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="37">
         <f>H24/$D$32</f>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="36">
         <f>C24*D24</f>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="36">
         <f>C24-$B$34</f>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="36">
         <f>D24*ABS(K24)</f>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="36">
         <f>D24*(K24*K24)</f>
       </c>
-      <c r="N24" s="42">
+      <c r="N24" s="36">
         <f>D24*(K24^3)</f>
       </c>
-      <c r="O24" s="42">
+      <c r="O24" s="36">
         <f>D24*(K24^4)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="41">
+      <c r="A25" s="35">
         <f>B24+1</f>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="35">
         <f>A25+15</f>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="36">
         <f>AVERAGE(A25:B25)</f>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="35">
         <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A25, $A$2:$J$19, "&lt;="&amp;B25)</f>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="37">
         <f>D25/$D$32</f>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="35">
         <f>F24+D25</f>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="37">
         <f>F25/$D$32</f>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="35">
         <f>H24-D24</f>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="37">
         <f>H25/$D$32</f>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="36">
         <f>C25*D25</f>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="36">
         <f>C25-$B$34</f>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="36">
         <f>D25*ABS(K25)</f>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="36">
         <f>D25*(K25*K25)</f>
       </c>
-      <c r="N25" s="42">
+      <c r="N25" s="36">
         <f>D25*(K25^3)</f>
       </c>
-      <c r="O25" s="42">
+      <c r="O25" s="36">
         <f>D25*(K25^4)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="41">
+      <c r="A26" s="35">
         <f>B25+1</f>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="35">
         <f>A26+15</f>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="36">
         <f>AVERAGE(A26:B26)</f>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="35">
         <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A26, $A$2:$J$19, "&lt;="&amp;B26)</f>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="37">
         <f>D26/$D$32</f>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="35">
         <f>F25+D26</f>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="37">
         <f>F26/$D$32</f>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="35">
         <f>H25-D25</f>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="37">
         <f>H26/$D$32</f>
       </c>
-      <c r="J26" s="41">
+      <c r="J26" s="35">
         <f>C26*D26</f>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="36">
         <f>C26-$B$34</f>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="36">
         <f>D26*ABS(K26)</f>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="36">
         <f>D26*(K26*K26)</f>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="36">
         <f>D26*(K26^3)</f>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="36">
         <f>D26*(K26^4)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="41">
+      <c r="A27" s="35">
         <f>B26+1</f>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="35">
         <f>A27+15</f>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="36">
         <f>AVERAGE(A27:B27)</f>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="35">
         <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A27, $A$2:$J$19, "&lt;="&amp;B27)</f>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="37">
         <f>D27/$D$32</f>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="38">
         <f>F26+D27</f>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="37">
         <f>F27/$D$32</f>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="35">
         <f>H26-D26</f>
       </c>
-      <c r="I27" s="43">
+      <c r="I27" s="37">
         <f>H27/$D$32</f>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="36">
         <f>C27*D27</f>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="36">
         <f>C27-$B$34</f>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="36">
         <f>D27*ABS(K27)</f>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="36">
         <f>D27*(K27*K27)</f>
       </c>
-      <c r="N27" s="42">
+      <c r="N27" s="36">
         <f>D27*(K27^3)</f>
       </c>
-      <c r="O27" s="42">
+      <c r="O27" s="36">
         <f>D27*(K27^4)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="41">
+      <c r="A28" s="35">
         <f>B27+1</f>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="35">
         <f>A28+15</f>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="36">
         <f>AVERAGE(A28:B28)</f>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="35">
         <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A28, $A$2:$J$19, "&lt;="&amp;B28)</f>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="37">
         <f>D28/$D$32</f>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="35">
         <f>F27+D28</f>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="37">
         <f>F28/$D$32</f>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="35">
         <f>H27-D27</f>
       </c>
-      <c r="I28" s="43">
+      <c r="I28" s="37">
         <f>H28/$D$32</f>
       </c>
-      <c r="J28" s="41">
+      <c r="J28" s="35">
         <f>C28*D28</f>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="36">
         <f>C28-$B$34</f>
       </c>
-      <c r="L28" s="42">
+      <c r="L28" s="36">
         <f>D28*ABS(K28)</f>
       </c>
-      <c r="M28" s="42">
+      <c r="M28" s="36">
         <f>D28*(K28*K28)</f>
       </c>
-      <c r="N28" s="42">
+      <c r="N28" s="36">
         <f>D28*(K28^3)</f>
       </c>
-      <c r="O28" s="42">
+      <c r="O28" s="36">
         <f>D28*(K28^4)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="41">
+      <c r="A29" s="35">
         <f>B28+1</f>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="35">
         <f>A29+15</f>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="36">
         <f>AVERAGE(A29:B29)</f>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="35">
         <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A29, $A$2:$J$19, "&lt;="&amp;B29)</f>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="37">
         <f>D29/$D$32</f>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="35">
         <f>F28+D29</f>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="37">
         <f>F29/$D$32</f>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="35">
         <f>H28-D28</f>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="37">
         <f>H29/$D$32</f>
       </c>
-      <c r="J29" s="42">
+      <c r="J29" s="36">
         <f>C29*D29</f>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="36">
         <f>C29-$B$34</f>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="36">
         <f>D29*ABS(K29)</f>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="36">
         <f>D29*(K29*K29)</f>
       </c>
-      <c r="N29" s="42">
+      <c r="N29" s="36">
         <f>D29*(K29^3)</f>
       </c>
-      <c r="O29" s="42">
+      <c r="O29" s="36">
         <f>D29*(K29^4)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="41">
+      <c r="A30" s="35">
         <f>B29+1</f>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="35">
         <f>A30+15</f>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="36">
         <f>AVERAGE(A30:B30)</f>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="35">
         <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A30, $A$2:$J$19, "&lt;="&amp;B30)</f>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="37">
         <f>D30/$D$32</f>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="35">
         <f>F29+D30</f>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="37">
         <f>F30/$D$32</f>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="35">
         <f>H29-D29</f>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="37">
         <f>H30/$D$32</f>
       </c>
-      <c r="J30" s="41">
+      <c r="J30" s="35">
         <f>C30*D30</f>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="36">
         <f>C30-$B$34</f>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="36">
         <f>D30*ABS(K30)</f>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="36">
         <f>D30*(K30*K30)</f>
       </c>
-      <c r="N30" s="42">
+      <c r="N30" s="36">
         <f>D30*(K30^3)</f>
       </c>
-      <c r="O30" s="42">
+      <c r="O30" s="36">
         <f>D30*(K30^4)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="41">
+      <c r="A31" s="35">
         <f>B30+1</f>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="35">
         <f>A31+15</f>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="36">
         <f>AVERAGE(A31:B31)</f>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="35">
         <f>COUNTIFS($A$2:$J$19, "&gt;="&amp;A31, $A$2:$J$19, "&lt;="&amp;B31)</f>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="37">
         <f>D31/$D$32</f>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="35">
         <f>F30+D31</f>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="37">
         <f>F31/$D$32</f>
       </c>
-      <c r="H31" s="41">
+      <c r="H31" s="35">
         <f>H30-D30</f>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="37">
         <f>H31/$D$32</f>
       </c>
-      <c r="J31" s="41">
+      <c r="J31" s="35">
         <f>C31*D31</f>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="36">
         <f>C31-$B$34</f>
       </c>
-      <c r="L31" s="42">
+      <c r="L31" s="36">
         <f>D31*ABS(K31)</f>
       </c>
-      <c r="M31" s="42">
+      <c r="M31" s="36">
         <f>D31*(K31*K31)</f>
       </c>
-      <c r="N31" s="42">
+      <c r="N31" s="36">
         <f>D31*(K31^3)</f>
       </c>
-      <c r="O31" s="42">
+      <c r="O31" s="36">
         <f>D31*(K31^4)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="45"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41">
+      <c r="A32" s="39"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35">
         <f>SUM(D23:D31)</f>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="37">
         <f>SUM(E23:E31)</f>
       </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="41">
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="35">
         <f>SUM(J23:J31)</f>
       </c>
-      <c r="K32" s="40"/>
-      <c r="L32" s="42">
+      <c r="K32" s="34"/>
+      <c r="L32" s="36">
         <f>SUM(L23:L31)</f>
       </c>
-      <c r="M32" s="42">
+      <c r="M32" s="36">
         <f>SUM(M23:M31)</f>
       </c>
-      <c r="N32" s="42">
+      <c r="N32" s="36">
         <f>SUM(N23:N31)</f>
       </c>
-      <c r="O32" s="42">
+      <c r="O32" s="36">
         <f>SUM(O23:O31)</f>
       </c>
     </row>
@@ -2138,7 +2140,7 @@
       <c r="O33" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="1">
@@ -2159,13 +2161,13 @@
       <c r="O34" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="1">
         <f>A27+((D35-F26)/D27)*N10</f>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="3">
@@ -2188,19 +2190,19 @@
       <c r="O35" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="1">
         <f>A25+(D36/(D36+F36)*N10)</f>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="41" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="3">
         <f>D25-D24</f>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="41" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="3">
@@ -2272,13 +2274,13 @@
       <c r="O39" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="1">
         <f>A27+((D40-F26)/D27)*N10</f>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="3">
@@ -2382,13 +2384,13 @@
       <c r="O45" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="1">
         <f>A29+((D46-F28)/D29)*N10</f>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D46" s="3">
@@ -2492,13 +2494,13 @@
       <c r="O51" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="41" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="1">
         <f>A25+((D52-F24)/D25)*N10</f>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="1">
@@ -2602,7 +2604,7 @@
       <c r="O57" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="41" t="s">
         <v>30</v>
       </c>
       <c r="B58" s="3">
@@ -2674,7 +2676,7 @@
       <c r="O61" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="41" t="s">
         <v>49</v>
       </c>
       <c r="B62" s="1">
@@ -2729,7 +2731,7 @@
       <c r="O64" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="41" t="s">
         <v>31</v>
       </c>
       <c r="B65" s="1">
@@ -2784,7 +2786,7 @@
       <c r="O67" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B68" s="1">
@@ -2823,25 +2825,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="28" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="29" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="31" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="32" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="31" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="31" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="33" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="31" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="33" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="34" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="30" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="24" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="24" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="25" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="25" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="25" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="25" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="25" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="26" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="26" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="26" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="27" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="25" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="27" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="28" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="25" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="25" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="25" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="25" width="11.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -3277,7 +3279,7 @@
       <c r="A14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -3286,31 +3288,31 @@
       <c r="D14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="19" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N14" s="5"/>
@@ -3321,43 +3323,43 @@
       <c r="S14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="23">
+      <c r="A15" s="21">
         <v>5</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="21">
         <f>COUNTIF($A$2:$G$11,A15)</f>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <f>B15/$B$22</f>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="21">
         <f>B15</f>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="22">
         <f>D15/$B$22</f>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="21">
         <f>B22</f>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="22">
         <f>F15/$B$22</f>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="21">
         <f>B15*A15</f>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="23">
         <f>A15-$K$25</f>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="23">
         <f>B15*ABS(I15)</f>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="23">
         <f>B15*(I15*I15)</f>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="23">
         <f>B15*I15^3</f>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="23">
         <f>B15*I15^4</f>
       </c>
       <c r="N15" s="5"/>
@@ -3368,278 +3370,278 @@
       <c r="S15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="23">
+      <c r="A16" s="21">
         <v>6</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="21">
         <f>COUNTIF($A$2:$G$11,A16)</f>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <f>B16/$B$22</f>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="21">
         <f>D15+B16</f>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="22">
         <f>D16/$B$22</f>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="21">
         <f>F15-B15</f>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="22">
         <f>F16/$B$22</f>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="21">
         <f>B16*A16</f>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="23">
         <f>A16-$K$25</f>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="23">
         <f>B16*ABS(I16)</f>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="23">
         <f>B16*(I16*I16)</f>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="23">
         <f>B16*I16^3</f>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="23">
         <f>B16*I16^4</f>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="23">
+      <c r="A17" s="21">
         <v>7</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="21">
         <f>COUNTIF($A$2:$G$11,A17)</f>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <f>B17/$B$22</f>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="21">
         <f>D16+B17</f>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="22">
         <f>D17/$B$22</f>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <f>F16-B16</f>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="22">
         <f>F17/$B$22</f>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="21">
         <f>B17*A17</f>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="23">
         <f>A17-$K$25</f>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="23">
         <f>B17*ABS(I17)</f>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="23">
         <f>B17*(I17*I17)</f>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="23">
         <f>B17*I17^3</f>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="23">
         <f>B17*I17^4</f>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="23">
+      <c r="A18" s="21">
         <v>8</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="21">
         <f>COUNTIF($A$2:$G$11,A18)</f>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <f>B18/$B$22</f>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="21">
         <f>D17+B18</f>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="22">
         <f>D18/$B$22</f>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="21">
         <f>F17-B17</f>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="22">
         <f>F18/$B$22</f>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="21">
         <f>B18*A18</f>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="23">
         <f>A18-$K$25</f>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="23">
         <f>B18*ABS(I18)</f>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="23">
         <f>B18*(I18*I18)</f>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="23">
         <f>B18*I18^3</f>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="23">
         <f>B18*I18^4</f>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="23">
+      <c r="A19" s="21">
         <v>9</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="21">
         <f>COUNTIF($A$2:$G$11,A19)</f>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <f>B19/$B$22</f>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="21">
         <f>D18+B19</f>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <f>D19/$B$22</f>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <f>F18-B18</f>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="22">
         <f>F19/$B$22</f>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="21">
         <f>B19*A19</f>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="23">
         <f>A19-$K$25</f>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="23">
         <f>B19*ABS(I19)</f>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="23">
         <f>B19*(I19*I19)</f>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="23">
         <f>B19*I19^3</f>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="23">
         <f>B19*I19^4</f>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="23">
+      <c r="A20" s="21">
         <v>10</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="21">
         <f>COUNTIF($A$2:$G$11,A20)</f>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="22">
         <f>B20/$B$22</f>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="21">
         <f>D19+B20</f>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="22">
         <f>D20/$B$22</f>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="21">
         <f>F19-B19</f>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="22">
         <f>F20/$B$22</f>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="21">
         <f>B20*A20</f>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="23">
         <f>A20-$K$25</f>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="23">
         <f>B20*ABS(I20)</f>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="23">
         <f>B20*(I20*I20)</f>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="23">
         <f>B20*I20^3</f>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="23">
         <f>B20*I20^4</f>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="23">
+      <c r="A21" s="21">
         <v>11</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="21">
         <f>COUNTIF($A$2:$G$11,A21)</f>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="22">
         <f>B21/$B$22</f>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="21">
         <f>D20+B21</f>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <f>D21/$B$22</f>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="21">
         <f>F20-B20</f>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="22">
         <f>F21/$B$22</f>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="21">
         <f>B21*A21</f>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="23">
         <f>A21-$K$25</f>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="23">
         <f>B21*ABS(I21)</f>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="23">
         <f>B21*(I21*I21)</f>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="23">
         <f>B21*I21^3</f>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="23">
         <f>B21*I21^4</f>
       </c>
       <c r="N21" s="5"/>
@@ -3650,43 +3652,43 @@
       <c r="S21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="21">
         <f>SUM(B15:B21)</f>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <f>SUM(C15:C21)</f>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="21">
         <f>SUM(H15:H21)</f>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="23">
         <f>SUM(J15:J21)</f>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="23">
         <f>SUM(K15:K21)</f>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="23">
         <f>SUM(L15:L21)</f>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="23">
         <f>SUM(M15:M21)</f>
       </c>
       <c r="N22" s="5"/>
@@ -3736,11 +3738,11 @@
         <f>L22/(B22*B52^3)</f>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="20" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="5"/>
-      <c r="M24" s="27"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="1"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3765,11 +3767,11 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="25">
+      <c r="K25" s="23">
         <f>H22/B22</f>
       </c>
       <c r="L25" s="5"/>
-      <c r="M25" s="27"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="1"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3798,7 +3800,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="27"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="1"/>
       <c r="O26" s="12">
         <v>35</v>
@@ -3821,11 +3823,11 @@
       <c r="H27" s="3"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L27" s="5"/>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="N27" s="11">
@@ -3850,11 +3852,11 @@
       <c r="H28" s="3"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="23">
+      <c r="K28" s="21">
         <f>Q27</f>
       </c>
       <c r="L28" s="5"/>
-      <c r="M28" s="27"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="1"/>
       <c r="O28" s="12">
         <v>36</v>
